--- a/biology/Botanique/Jardin_botanique_de_l'université_de_Cambridge/Jardin_botanique_de_l'université_de_Cambridge.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_l'université_de_Cambridge/Jardin_botanique_de_l'université_de_Cambridge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Cambridge</t>
+          <t>Jardin_botanique_de_l'université_de_Cambridge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de l'Université de Cambridge (Cambridge University Botanic Garden en anglais) est un jardin botanique situé à Cambridge au Royaume-Uni. D'une superficie de 16 hectares, il est situé entre le centre-ville et la gare de Cambridge. 
 Fondé pour l'université de Cambridge en 1831 par John Stevens Henslow (1795-1861), le jardin a ouvert au public en 1846. Beaucoup le considèrent comme le deuxième en importance derrière les jardins botaniques royaux de Kew.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Cambridge</t>
+          <t>Jardin_botanique_de_l'université_de_Cambridge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Collection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Autumn colour garden
 Bed of British native plants
@@ -560,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Cambridge</t>
+          <t>Jardin_botanique_de_l'université_de_Cambridge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -578,7 +592,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses activités ainsi que des démonstrations publiques sont organisées au sein du jardin botanique, y compris la très populaire journée de la pomme (Apple day).
 Sélection et soin des arbres
